--- a/IEDC_LookupTable_fill/classification_definition_data.xlsx
+++ b/IEDC_LookupTable_fill/classification_definition_data.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -272,13 +272,31 @@
   </si>
   <si>
     <t>List of services</t>
+  </si>
+  <si>
+    <t>custom</t>
+  </si>
+  <si>
+    <t>Custom classification, dimension specified via aspect</t>
+  </si>
+  <si>
+    <t>building_types</t>
+  </si>
+  <si>
+    <t>List of commonly used building types</t>
+  </si>
+  <si>
+    <t>age_cohort_ranges</t>
+  </si>
+  <si>
+    <t>List of time intervals for age cohorts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +316,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -320,7 +346,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -329,9 +355,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -636,18 +663,18 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,27 +757,29 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>29</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -779,27 +808,29 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="5">
-        <v>4</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
@@ -850,27 +881,29 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -893,27 +926,29 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
@@ -936,27 +971,29 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
@@ -981,27 +1018,29 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="5">
-        <v>7</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="H7" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
@@ -1024,18 +1063,18 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="5">
-        <v>6</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>37</v>
@@ -1044,7 +1083,9 @@
         <v>37</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
@@ -1067,27 +1108,29 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
@@ -1110,18 +1153,18 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>30</v>
@@ -1130,7 +1173,9 @@
         <v>37</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="H10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
@@ -1153,27 +1198,29 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
@@ -1196,18 +1243,18 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C12" s="5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>37</v>
@@ -1216,7 +1263,9 @@
         <v>37</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1247,18 +1296,18 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>37</v>
@@ -1267,7 +1316,9 @@
         <v>37</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
@@ -1288,17 +1339,29 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="5">
+        <v>11</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1319,17 +1382,29 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="5">
+        <v>6</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="H15" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1350,17 +1425,29 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="H16" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
@@ -1381,10 +1468,8 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>16</v>
-      </c>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1412,10 +1497,8 @@
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="3"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1443,10 +1526,8 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1474,10 +1555,8 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1505,7 +1584,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1534,7 +1613,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1563,7 +1642,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1592,7 +1671,7 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>

--- a/IEDC_LookupTable_fill/classification_definition_data.xlsx
+++ b/IEDC_LookupTable_fill/classification_definition_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
   <si>
     <t>id</t>
   </si>
@@ -290,6 +290,45 @@
   </si>
   <si>
     <t>List of time intervals for age cohorts</t>
+  </si>
+  <si>
+    <t>steel_cycle_200R_processes</t>
+  </si>
+  <si>
+    <t>List of processes for steel cycle MFA DOI 10.1016/j.resconrec.2012.11.008</t>
+  </si>
+  <si>
+    <t>process_id</t>
+  </si>
+  <si>
+    <t>process_name</t>
+  </si>
+  <si>
+    <t>process_code</t>
+  </si>
+  <si>
+    <t>process_type</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>xPos</t>
+  </si>
+  <si>
+    <t>yPos</t>
   </si>
 </sst>
 </file>
@@ -663,12 +702,12 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="18.109375" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
@@ -1469,78 +1508,104 @@
       <c r="AA16" s="5"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
+      <c r="H17" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="5">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
+      <c r="M18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" t="s">
+        <v>94</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>99</v>
+      </c>
+      <c r="S18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" t="s">
+        <v>101</v>
+      </c>
+      <c r="U18" t="s">
+        <v>102</v>
+      </c>
+      <c r="V18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W18" t="s">
+        <v>104</v>
+      </c>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>

--- a/IEDC_LookupTable_fill/classification_definition_data.xlsx
+++ b/IEDC_LookupTable_fill/classification_definition_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>id</t>
   </si>
@@ -107,18 +107,6 @@
   </si>
   <si>
     <t>True</t>
-  </si>
-  <si>
-    <t>Element name</t>
-  </si>
-  <si>
-    <t>Atomic number</t>
-  </si>
-  <si>
-    <t>Element symbol</t>
-  </si>
-  <si>
-    <t>Average atomic mass in grams per mole</t>
   </si>
   <si>
     <t>regions_iso_iedc</t>
@@ -397,7 +385,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -699,21 +687,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA24"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,24 +784,24 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="6">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5" t="s">
@@ -824,44 +812,66 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="C3" s="5">
+        <v>4</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>30</v>
@@ -875,69 +885,41 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="X3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5" t="s">
@@ -948,7 +930,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -965,24 +947,24 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5">
         <v>5</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5" t="s">
@@ -993,9 +975,11 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1010,24 +994,24 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="5">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="5">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
@@ -1040,9 +1024,7 @@
       <c r="M6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="N6" s="5" t="s">
-        <v>61</v>
-      </c>
+      <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1057,24 +1039,24 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C7" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>59</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
@@ -1085,7 +1067,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1102,24 +1084,24 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="5">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
@@ -1130,7 +1112,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1147,24 +1129,24 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="5">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>66</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5" t="s">
@@ -1175,7 +1157,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1192,24 +1174,24 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="5">
-        <v>9</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>69</v>
-      </c>
       <c r="E10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5" t="s">
@@ -1220,7 +1202,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1237,24 +1219,24 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5" t="s">
@@ -1265,12 +1247,20 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="O11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1282,24 +1272,24 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C12" s="5">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>75</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5" t="s">
@@ -1309,21 +1299,11 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O12" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>83</v>
-      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -1335,24 +1315,24 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="5">
-        <v>4</v>
-      </c>
       <c r="D13" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5" t="s">
@@ -1378,24 +1358,24 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>85</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5" t="s">
@@ -1421,24 +1401,24 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5" t="s">
@@ -1464,148 +1444,134 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>91</v>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>87</v>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="5">
+        <v>7</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5" t="s">
         <v>30</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>94</v>
+      </c>
+      <c r="R17" t="s">
+        <v>95</v>
+      </c>
+      <c r="S17" t="s">
+        <v>96</v>
+      </c>
+      <c r="T17" t="s">
+        <v>97</v>
+      </c>
+      <c r="U17" t="s">
+        <v>98</v>
+      </c>
+      <c r="V17" t="s">
+        <v>99</v>
+      </c>
+      <c r="W17" t="s">
+        <v>100</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18" s="5">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5" t="s">
-        <v>30</v>
-      </c>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" t="s">
-        <v>95</v>
-      </c>
-      <c r="N18" t="s">
-        <v>94</v>
-      </c>
-      <c r="O18" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>98</v>
-      </c>
-      <c r="R18" t="s">
-        <v>99</v>
-      </c>
-      <c r="S18" t="s">
-        <v>100</v>
-      </c>
-      <c r="T18" t="s">
-        <v>101</v>
-      </c>
-      <c r="U18" t="s">
-        <v>102</v>
-      </c>
-      <c r="V18" t="s">
-        <v>103</v>
-      </c>
-      <c r="W18" t="s">
-        <v>104</v>
-      </c>
+      <c r="M18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -1620,8 +1586,8 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1649,7 +1615,7 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1678,7 +1644,7 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1707,7 +1673,7 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1736,35 +1702,6 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IEDC_LookupTable_fill/classification_definition_data.xlsx
+++ b/IEDC_LookupTable_fill/classification_definition_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -202,9 +202,6 @@
     <t>general_product_categories</t>
   </si>
   <si>
-    <t>List of general building categories, residential and non-residential</t>
-  </si>
-  <si>
     <t>Building type</t>
   </si>
   <si>
@@ -317,6 +314,45 @@
   </si>
   <si>
     <t>yPos</t>
+  </si>
+  <si>
+    <t>US_LCI_materials</t>
+  </si>
+  <si>
+    <t>LCI_material_categories</t>
+  </si>
+  <si>
+    <t>US_LCI_material_groups</t>
+  </si>
+  <si>
+    <t>LCI_data_layers</t>
+  </si>
+  <si>
+    <t>List of materials (flows) used in US LCI database</t>
+  </si>
+  <si>
+    <t>List of material categories used in LCI data</t>
+  </si>
+  <si>
+    <t>List of material groups used in US LCI database</t>
+  </si>
+  <si>
+    <t>List of data layers used in LCI data</t>
+  </si>
+  <si>
+    <t>US_LCI_processes</t>
+  </si>
+  <si>
+    <t>List of processes used in US LCI database</t>
+  </si>
+  <si>
+    <t>UK_IO_17Commodities</t>
+  </si>
+  <si>
+    <t>List of 17 commodities used for 2010 aggregated UK IO table in pxp format</t>
+  </si>
+  <si>
+    <t>List of general product categories, residential and non-residential</t>
   </si>
 </sst>
 </file>
@@ -385,7 +421,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -690,18 +726,18 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +820,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -857,7 +893,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -902,7 +938,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -947,7 +983,7 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -994,7 +1030,7 @@
       <c r="Z5" s="5"/>
       <c r="AA5" s="5"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1039,7 +1075,7 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1067,7 +1103,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1084,7 +1120,7 @@
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1095,7 +1131,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>33</v>
@@ -1112,7 +1148,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1129,18 +1165,18 @@
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" s="5">
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>30</v>
@@ -1157,7 +1193,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1174,18 +1210,18 @@
       <c r="Z9" s="5"/>
       <c r="AA9" s="5"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>30</v>
@@ -1202,7 +1238,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1219,18 +1255,18 @@
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>33</v>
@@ -1247,19 +1283,19 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="O11" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="P11" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="Q11" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
@@ -1272,18 +1308,18 @@
       <c r="Z11" s="5"/>
       <c r="AA11" s="5"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
@@ -1315,18 +1351,18 @@
       <c r="Z12" s="5"/>
       <c r="AA12" s="5"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>33</v>
@@ -1358,18 +1394,18 @@
       <c r="Z13" s="5"/>
       <c r="AA13" s="5"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>33</v>
@@ -1401,18 +1437,18 @@
       <c r="Z14" s="5"/>
       <c r="AA14" s="5"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>33</v>
@@ -1444,18 +1480,18 @@
       <c r="Z15" s="5"/>
       <c r="AA15" s="5"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>33</v>
@@ -1472,18 +1508,18 @@
       <c r="Z16" s="5"/>
       <c r="AA16" s="5"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>30</v>
@@ -1500,44 +1536,66 @@
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" t="s">
+        <v>89</v>
+      </c>
+      <c r="O17" t="s">
         <v>91</v>
       </c>
-      <c r="N17" t="s">
-        <v>90</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>92</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>93</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>94</v>
       </c>
-      <c r="R17" t="s">
+      <c r="S17" t="s">
         <v>95</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>96</v>
       </c>
-      <c r="T17" t="s">
+      <c r="U17" t="s">
         <v>97</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>98</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>99</v>
-      </c>
-      <c r="W17" t="s">
-        <v>100</v>
       </c>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1557,15 +1615,29 @@
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1586,15 +1658,29 @@
       <c r="Z19" s="5"/>
       <c r="AA19" s="5"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="5">
+        <v>5</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="H20" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1615,15 +1701,29 @@
       <c r="Z20" s="5"/>
       <c r="AA20" s="5"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="5">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="H21" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1644,15 +1744,29 @@
       <c r="Z21" s="5"/>
       <c r="AA21" s="5"/>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="5">
+        <v>7</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1673,15 +1787,29 @@
       <c r="Z22" s="5"/>
       <c r="AA22" s="5"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="H23" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>

--- a/IEDC_LookupTable_fill/classification_definition_data.xlsx
+++ b/IEDC_LookupTable_fill/classification_definition_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -353,6 +353,12 @@
   </si>
   <si>
     <t>List of general product categories, residential and non-residential</t>
+  </si>
+  <si>
+    <t>steel_cycle_200R_materials_products</t>
+  </si>
+  <si>
+    <t>materials and products for stocks and flows in dataset for global steel cycle</t>
   </si>
 </sst>
 </file>
@@ -723,15 +729,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="54" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
@@ -1830,6 +1836,30 @@
       <c r="Z23" s="5"/>
       <c r="AA23" s="5"/>
     </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="5">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IEDC_LookupTable_fill/classification_definition_data.xlsx
+++ b/IEDC_LookupTable_fill/classification_definition_data.xlsx
@@ -732,7 +732,7 @@
   <dimension ref="A1:AA24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/IEDC_LookupTable_fill/classification_definition_data.xlsx
+++ b/IEDC_LookupTable_fill/classification_definition_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="131">
   <si>
     <t>id</t>
   </si>
@@ -49,12 +49,6 @@
     <t>reference</t>
   </si>
   <si>
-    <t>reserve4</t>
-  </si>
-  <si>
-    <t>reserve5</t>
-  </si>
-  <si>
     <t>meaning_attribute1</t>
   </si>
   <si>
@@ -187,9 +181,6 @@
     <t>Commodity group</t>
   </si>
   <si>
-    <t>commodity code</t>
-  </si>
-  <si>
     <t>broad_industry_groups</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>High-medium-low scenarios</t>
   </si>
   <si>
-    <t>High/medium/low</t>
-  </si>
-  <si>
     <t>ca_time</t>
   </si>
   <si>
@@ -262,21 +250,12 @@
     <t>custom</t>
   </si>
   <si>
-    <t>Custom classification, dimension specified via aspect</t>
-  </si>
-  <si>
     <t>building_types</t>
   </si>
   <si>
     <t>List of commonly used building types</t>
   </si>
   <si>
-    <t>age_cohort_ranges</t>
-  </si>
-  <si>
-    <t>List of time intervals for age cohorts</t>
-  </si>
-  <si>
     <t>steel_cycle_200R_processes</t>
   </si>
   <si>
@@ -359,6 +338,75 @@
   </si>
   <si>
     <t>materials and products for stocks and flows in dataset for global steel cycle</t>
+  </si>
+  <si>
+    <t>created_from_dataset</t>
+  </si>
+  <si>
+    <t>general</t>
+  </si>
+  <si>
+    <t>element name (lowercase)</t>
+  </si>
+  <si>
+    <t>atomic number</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>element name (uppercase)</t>
+  </si>
+  <si>
+    <t>atomic weight (rough)</t>
+  </si>
+  <si>
+    <t>commodity code (NACEv2)</t>
+  </si>
+  <si>
+    <t>Scenario alternatives: High/medium/low, etc.</t>
+  </si>
+  <si>
+    <t>Service type</t>
+  </si>
+  <si>
+    <t>Product category</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Custom classification, dimension specified via aspect, placeholder only!</t>
+  </si>
+  <si>
+    <t>Range of years or age-cohorts</t>
+  </si>
+  <si>
+    <t>time_ranges</t>
+  </si>
+  <si>
+    <t>List of time intervals for age cohorts and years</t>
+  </si>
+  <si>
+    <t>material name</t>
+  </si>
+  <si>
+    <t>broad material category for LCA (product, elementary, waste)</t>
+  </si>
+  <si>
+    <t>data layers for LCI data (mass, energy, monetary, …)</t>
+  </si>
+  <si>
+    <t>Process (activity) names from US LCI database</t>
+  </si>
+  <si>
+    <t>materials and substances list of US LCI database, incomplete (!)</t>
+  </si>
+  <si>
+    <t>grouping of flows in US LCI database into categories like 'reference product' or 'air, high population density'</t>
+  </si>
+  <si>
+    <t>Aggregated industrial sector names of UK IO table</t>
   </si>
 </sst>
 </file>
@@ -731,16 +779,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="54" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.109375" customWidth="1"/>
     <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
+    <col min="10" max="10" width="4.88671875" customWidth="1"/>
+    <col min="11" max="11" width="5.44140625" customWidth="1"/>
+    <col min="12" max="12" width="4.5546875" customWidth="1"/>
+    <col min="13" max="13" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
@@ -763,67 +819,67 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
@@ -831,72 +887,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H2" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>48</v>
+      <c r="M2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O2" t="s">
+        <v>112</v>
+      </c>
+      <c r="P2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
@@ -904,45 +932,75 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="5">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -955,24 +1013,26 @@
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -994,34 +1054,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5">
         <v>5</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H5" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1041,32 +1101,36 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5">
         <v>6</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>115</v>
+      </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1086,30 +1150,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5">
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1131,30 +1197,32 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="5">
         <v>6</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1176,30 +1244,32 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5">
         <v>9</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H9" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1221,30 +1291,32 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H10" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1266,43 +1338,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5">
         <v>8</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="5" t="s">
-        <v>78</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -1319,33 +1385,45 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="M12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
@@ -1362,29 +1440,33 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H13" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="M13" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -1405,29 +1487,33 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C14" s="5">
         <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H14" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="M14" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -1448,29 +1534,33 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H15" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="M15" s="5" t="s">
+        <v>121</v>
+      </c>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -1491,23 +1581,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H16" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
@@ -1519,63 +1614,63 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C17" s="5">
         <v>7</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N17" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R17" t="s">
+        <v>85</v>
+      </c>
+      <c r="S17" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" t="s">
+        <v>87</v>
+      </c>
+      <c r="U17" t="s">
+        <v>88</v>
+      </c>
+      <c r="V17" t="s">
+        <v>89</v>
+      </c>
+      <c r="W17" t="s">
         <v>90</v>
       </c>
-      <c r="N17" t="s">
-        <v>89</v>
-      </c>
-      <c r="O17" t="s">
+      <c r="X17" t="s">
         <v>91</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Y17" t="s">
         <v>92</v>
       </c>
-      <c r="Q17" t="s">
-        <v>93</v>
-      </c>
-      <c r="R17" t="s">
-        <v>94</v>
-      </c>
-      <c r="S17" t="s">
-        <v>95</v>
-      </c>
-      <c r="T17" t="s">
-        <v>96</v>
-      </c>
-      <c r="U17" t="s">
-        <v>97</v>
-      </c>
-      <c r="V17" t="s">
-        <v>98</v>
-      </c>
-      <c r="W17" t="s">
-        <v>99</v>
-      </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
       <c r="Z17" s="5"/>
       <c r="AA17" s="5"/>
     </row>
@@ -1584,29 +1679,33 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H18" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="M18" s="5" t="s">
+        <v>128</v>
+      </c>
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -1626,29 +1725,33 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C19" s="5">
         <v>5</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="M19" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
@@ -1669,29 +1772,33 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C20" s="5">
         <v>5</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
+      <c r="M20" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
@@ -1712,29 +1819,33 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C21" s="5">
         <v>12</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H21" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="M21" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5"/>
@@ -1755,29 +1866,33 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C22" s="5">
         <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="H22" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="M22" s="5" t="s">
+        <v>127</v>
+      </c>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
@@ -1798,29 +1913,33 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C23" s="5">
         <v>6</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H23" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="M23" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
@@ -1841,23 +1960,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C24" s="5">
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="5"/>
+        <v>31</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="H24" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="M24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
